--- a/src/cn/ctc/schedule.xlsx
+++ b/src/cn/ctc/schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Line</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,11 +44,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>50,50,30,30,20,20,20,20,20,30,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50,50,30,30,20,20,20,20,20,30,30,30</t>
+    <t>1,2,13,14,15,8,9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,20,20,20,20,20,30,30,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +423,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -444,24 +456,34 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
